--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
@@ -14,7 +14,7 @@
     <sheet name="B值减缩系数" sheetId="7" r:id="rId5"/>
     <sheet name="宽度修正技术" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1492,7 +1492,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1784,14 +1784,14 @@
       <selection activeCell="U1" sqref="U1:AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="49.86328125" style="5" customWidth="1"/>
-    <col min="3" max="14" width="6.3984375" style="2" customWidth="1"/>
-    <col min="15" max="27" width="6.3984375" customWidth="1"/>
+    <col min="2" max="2" width="49.875" style="5" customWidth="1"/>
+    <col min="3" max="14" width="6.375" style="2" customWidth="1"/>
+    <col min="15" max="27" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <f ca="1">2:8</f>
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
         <v>109</v>
@@ -2033,7 +2033,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>110</v>
@@ -2111,7 +2111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>111</v>
@@ -2189,7 +2189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>112</v>
@@ -2267,7 +2267,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>113</v>
@@ -2345,7 +2345,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>114</v>
@@ -2423,7 +2423,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>115</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>116</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>117</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>118</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>119</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>120</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>121</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>122</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>123</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>124</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
         <v>125</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>126</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
         <v>127</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
         <v>128</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>129</v>
       </c>
@@ -3595,20 +3595,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="148.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="148.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="71.86328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.46484375" style="3" customWidth="1"/>
-    <col min="4" max="66" width="6.46484375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="71.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="3" customWidth="1"/>
+    <col min="4" max="66" width="6.5" style="12" customWidth="1"/>
     <col min="67" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="4" t="s">
         <v>61</v>
@@ -3871,7 +3871,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
         <v>81</v>
@@ -4000,7 +4000,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>80</v>
@@ -4129,7 +4129,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>90</v>
@@ -4258,7 +4258,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>85</v>
@@ -4387,7 +4387,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>86</v>
@@ -4516,7 +4516,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>91</v>
@@ -4645,7 +4645,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>87</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>92</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>62</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>63</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>82</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
         <v>15</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>23</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>24</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
         <v>27</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>28</v>
       </c>
@@ -5010,7 +5010,7 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5025,7 +5025,7 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5041,7 +5041,7 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5056,7 +5056,7 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
@@ -15,7 +15,7 @@
     <sheet name="B值减缩系数" sheetId="7" r:id="rId6"/>
     <sheet name="宽度修正技术" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -238,9 +238,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+窗口一
+窗口二
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -266,7 +266,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-路径弹窗</t>
+路径弹窗
+选择工况弹窗
+选择材料许用值曲线</t>
         </r>
       </text>
     </comment>
@@ -464,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="136">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -551,19 +553,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开始校核计算···
-校核计算已完成！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用例状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>局部失稳勾选框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -585,14 +578,6 @@
   </si>
   <si>
     <t>刚度比勾选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B值减缩系数文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>载荷类型单选框极值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -778,14 +763,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1D静强度勾选框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -802,11 +779,223 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>载荷类型单选框均值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择校核工况按钮</t>
+    <t>杆柱单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果文本信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作窗口标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗中输入文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭弹窗按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有嵌套弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗关闭按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复材结构强度校核-&gt;复合材料强度校核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两边各取蒙皮宽度一半</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择校核工况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有弹窗出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -814,154 +1003,89 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>校核按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杆柱单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果文本信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作窗口标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作子窗口标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化级别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合材料强度校核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等到时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcqj1d001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcqj1d002</t>
+  </si>
+  <si>
+    <t>fcqj1d003</t>
+  </si>
+  <si>
+    <t>fcqj1d004</t>
+  </si>
+  <si>
+    <t>fcqj1d005</t>
+  </si>
+  <si>
+    <t>fcqj1d006</t>
+  </si>
+  <si>
+    <t>fcqj1d007</t>
+  </si>
+  <si>
+    <t>fcqj1d008</t>
+  </si>
+  <si>
+    <t>fcqj1d009</t>
+  </si>
+  <si>
+    <t>fcqj1d010</t>
+  </si>
+  <si>
+    <t>fcqj1d011</t>
+  </si>
+  <si>
+    <t>fcqj1d012</t>
+  </si>
+  <si>
+    <t>fcqj1d013</t>
+  </si>
+  <si>
+    <t>fcqj1d014</t>
+  </si>
+  <si>
+    <t>fcqj1d015</t>
+  </si>
+  <si>
+    <t>fcqj1d016</t>
+  </si>
+  <si>
+    <t>fcqj1d017</t>
+  </si>
+  <si>
+    <t>fcqj1d018</t>
+  </si>
+  <si>
+    <t>fcqj1d019</t>
+  </si>
+  <si>
+    <t>fcqj1d020</t>
+  </si>
+  <si>
+    <t>fcqj1d021</t>
+  </si>
+  <si>
+    <t>fcqj1d022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1114,7 +1238,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1406,14 +1530,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="49.86328125" style="5" customWidth="1"/>
-    <col min="3" max="14" width="6.3984375" style="2" customWidth="1"/>
-    <col min="15" max="27" width="6.3984375" customWidth="1"/>
+    <col min="2" max="2" width="49.875" style="5" customWidth="1"/>
+    <col min="3" max="14" width="6.375" style="2" customWidth="1"/>
+    <col min="15" max="27" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,121 +1548,121 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <f ca="1">2:8</f>
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>8</v>
@@ -1559,64 +1683,64 @@
         <v>10</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>10</v>
@@ -1646,55 +1770,55 @@
         <v>7</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>8</v>
@@ -1724,55 +1848,55 @@
         <v>7</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>10</v>
@@ -1802,55 +1926,55 @@
         <v>7</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>8</v>
@@ -1880,55 +2004,55 @@
         <v>7</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>10</v>
@@ -1958,55 +2082,55 @@
         <v>7</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>8</v>
@@ -2036,54 +2160,54 @@
         <v>7</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>10</v>
@@ -2113,54 +2237,54 @@
         <v>7</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>8</v>
@@ -2190,54 +2314,54 @@
         <v>7</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z10" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O11" s="9" t="s">
         <v>10</v>
@@ -2267,54 +2391,54 @@
         <v>7</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>10</v>
@@ -2344,54 +2468,54 @@
         <v>7</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>8</v>
@@ -2421,54 +2545,54 @@
         <v>7</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z13" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>10</v>
@@ -2498,54 +2622,54 @@
         <v>7</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>8</v>
@@ -2575,54 +2699,54 @@
         <v>7</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z15" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>8</v>
@@ -2652,54 +2776,54 @@
         <v>7</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z16" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O17" s="9" t="s">
         <v>10</v>
@@ -2729,54 +2853,54 @@
         <v>7</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z17" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>8</v>
@@ -2806,54 +2930,54 @@
         <v>7</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z18" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>10</v>
@@ -2883,54 +3007,54 @@
         <v>7</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z19" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O20" s="9" t="s">
         <v>8</v>
@@ -2960,54 +3084,54 @@
         <v>7</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z20" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>10</v>
@@ -3037,54 +3161,54 @@
         <v>7</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z21" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O22" s="9" t="s">
         <v>8</v>
@@ -3114,54 +3238,54 @@
         <v>7</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z22" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>10</v>
@@ -3191,10 +3315,10 @@
         <v>7</v>
       </c>
       <c r="X23" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z23" s="10" t="s">
         <v>13</v>
@@ -3218,48 +3342,50 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="43.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="43.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="18" width="6.9296875" style="2" customWidth="1"/>
-    <col min="19" max="35" width="5.796875" style="2" customWidth="1"/>
+    <col min="2" max="5" width="6.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="7" max="18" width="6.875" style="2" customWidth="1"/>
+    <col min="19" max="35" width="5.75" style="2" customWidth="1"/>
     <col min="36" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>9</v>
@@ -3283,139 +3409,233 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>91</v>
+      <c r="K3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+    <row r="4" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+    <row r="5" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -3469,508 +3689,508 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3982,20 +4202,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:T1"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="49.86328125" style="5" customWidth="1"/>
-    <col min="3" max="14" width="6.3984375" style="2" customWidth="1"/>
-    <col min="15" max="27" width="6.3984375" customWidth="1"/>
+    <col min="2" max="2" width="49.875" style="5" customWidth="1"/>
+    <col min="3" max="14" width="6.375" style="2" customWidth="1"/>
+    <col min="15" max="26" width="6.375" customWidth="1"/>
+    <col min="27" max="27" width="7.625" style="12" customWidth="1"/>
+    <col min="28" max="28" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4006,34 +4228,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>9</v>
@@ -4057,37 +4279,39 @@
         <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <f ca="1">2:8</f>
-        <v>0</v>
+    <row r="2" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>8</v>
@@ -4144,25 +4368,30 @@
         <v>11</v>
       </c>
       <c r="V2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X2" s="10" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z2" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA2" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -4222,25 +4451,30 @@
         <v>11</v>
       </c>
       <c r="V3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X3" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z3" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA3" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -4300,25 +4534,30 @@
         <v>11</v>
       </c>
       <c r="V4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X4" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z4" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA4" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -4378,25 +4617,30 @@
         <v>11</v>
       </c>
       <c r="V5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA5" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -4456,25 +4700,30 @@
         <v>11</v>
       </c>
       <c r="V6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X6" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA6" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -4534,25 +4783,30 @@
         <v>11</v>
       </c>
       <c r="V7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X7" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z7" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA7" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -4612,24 +4866,30 @@
         <v>11</v>
       </c>
       <c r="V8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X8" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z8" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA8" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -4689,24 +4949,30 @@
         <v>11</v>
       </c>
       <c r="V9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W9" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X9" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA9" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -4766,24 +5032,30 @@
         <v>11</v>
       </c>
       <c r="V10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W10" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X10" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z10" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA10" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -4843,24 +5115,30 @@
         <v>11</v>
       </c>
       <c r="V11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X11" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z11" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA11" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -4920,24 +5198,30 @@
         <v>11</v>
       </c>
       <c r="V12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W12" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X12" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z12" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA12" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
@@ -4997,24 +5281,30 @@
         <v>11</v>
       </c>
       <c r="V13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W13" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X13" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z13" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA13" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -5074,24 +5364,30 @@
         <v>11</v>
       </c>
       <c r="V14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W14" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X14" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA14" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
@@ -5151,24 +5447,30 @@
         <v>11</v>
       </c>
       <c r="V15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W15" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X15" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z15" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA15" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -5228,24 +5530,30 @@
         <v>11</v>
       </c>
       <c r="V16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W16" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X16" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z16" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA16" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -5305,24 +5613,30 @@
         <v>11</v>
       </c>
       <c r="V17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W17" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X17" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z17" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA17" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -5382,24 +5696,30 @@
         <v>11</v>
       </c>
       <c r="V18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W18" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X18" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z18" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA18" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -5459,24 +5779,30 @@
         <v>11</v>
       </c>
       <c r="V19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W19" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X19" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z19" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA19" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -5536,24 +5862,30 @@
         <v>11</v>
       </c>
       <c r="V20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W20" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X20" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z20" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA20" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -5613,24 +5945,30 @@
         <v>11</v>
       </c>
       <c r="V21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W21" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X21" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z21" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA21" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -5690,24 +6028,30 @@
         <v>11</v>
       </c>
       <c r="V22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W22" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X22" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z22" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA22" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="23" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
@@ -5767,19 +6111,22 @@
         <v>11</v>
       </c>
       <c r="V23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W23" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="X23" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z23" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5803,7 +6150,7 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5818,7 +6165,7 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5834,7 +6181,7 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5849,7 +6196,7 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="136">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1011,10 +1011,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试结果等到时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fcqj1d001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1080,6 +1076,10 @@
   </si>
   <si>
     <t>fcqj1d022</t>
+  </si>
+  <si>
+    <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1524,9 +1524,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1534,10 +1534,12 @@
   <cols>
     <col min="2" max="2" width="49.875" style="5" customWidth="1"/>
     <col min="3" max="14" width="6.375" style="2" customWidth="1"/>
-    <col min="15" max="27" width="6.375" customWidth="1"/>
+    <col min="15" max="26" width="6.375" customWidth="1"/>
+    <col min="27" max="27" width="7.625" style="12" customWidth="1"/>
+    <col min="28" max="28" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1617,13 +1619,15 @@
         <v>5</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
-        <f ca="1">2:8</f>
-        <v>0</v>
+    <row r="2" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>29</v>
@@ -1686,10 +1690,10 @@
         <v>11</v>
       </c>
       <c r="V2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X2" s="10" t="s">
         <v>28</v>
@@ -1700,9 +1704,14 @@
       <c r="Z2" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA2" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
@@ -1764,10 +1773,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X3" s="10" t="s">
         <v>28</v>
@@ -1778,9 +1787,14 @@
       <c r="Z3" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA3" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1842,10 +1856,10 @@
         <v>11</v>
       </c>
       <c r="V4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>28</v>
@@ -1856,9 +1870,14 @@
       <c r="Z4" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA4" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
@@ -1920,10 +1939,10 @@
         <v>11</v>
       </c>
       <c r="V5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X5" s="10" t="s">
         <v>28</v>
@@ -1934,9 +1953,14 @@
       <c r="Z5" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA5" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1998,10 +2022,10 @@
         <v>11</v>
       </c>
       <c r="V6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X6" s="10" t="s">
         <v>28</v>
@@ -2012,9 +2036,14 @@
       <c r="Z6" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA6" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
@@ -2076,10 +2105,10 @@
         <v>11</v>
       </c>
       <c r="V7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X7" s="10" t="s">
         <v>28</v>
@@ -2090,9 +2119,14 @@
       <c r="Z7" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA7" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
@@ -2154,10 +2188,10 @@
         <v>11</v>
       </c>
       <c r="V8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X8" s="10" t="s">
         <v>28</v>
@@ -2168,8 +2202,14 @@
       <c r="Z8" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA8" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -2231,10 +2271,10 @@
         <v>11</v>
       </c>
       <c r="V9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X9" s="10" t="s">
         <v>28</v>
@@ -2245,8 +2285,14 @@
       <c r="Z9" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA9" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -2308,10 +2354,10 @@
         <v>11</v>
       </c>
       <c r="V10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X10" s="10" t="s">
         <v>28</v>
@@ -2322,8 +2368,14 @@
       <c r="Z10" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA10" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
@@ -2385,10 +2437,10 @@
         <v>11</v>
       </c>
       <c r="V11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X11" s="10" t="s">
         <v>28</v>
@@ -2399,8 +2451,14 @@
       <c r="Z11" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA11" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
@@ -2462,10 +2520,10 @@
         <v>11</v>
       </c>
       <c r="V12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X12" s="10" t="s">
         <v>28</v>
@@ -2476,8 +2534,14 @@
       <c r="Z12" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA12" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
@@ -2539,10 +2603,10 @@
         <v>11</v>
       </c>
       <c r="V13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X13" s="10" t="s">
         <v>28</v>
@@ -2553,8 +2617,14 @@
       <c r="Z13" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA13" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
@@ -2616,10 +2686,10 @@
         <v>11</v>
       </c>
       <c r="V14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X14" s="10" t="s">
         <v>28</v>
@@ -2630,8 +2700,14 @@
       <c r="Z14" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA14" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>42</v>
       </c>
@@ -2693,10 +2769,10 @@
         <v>11</v>
       </c>
       <c r="V15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X15" s="10" t="s">
         <v>28</v>
@@ -2707,8 +2783,14 @@
       <c r="Z15" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA15" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
@@ -2770,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="V16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X16" s="10" t="s">
         <v>28</v>
@@ -2784,8 +2866,14 @@
       <c r="Z16" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA16" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>44</v>
       </c>
@@ -2847,10 +2935,10 @@
         <v>11</v>
       </c>
       <c r="V17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X17" s="10" t="s">
         <v>28</v>
@@ -2861,8 +2949,14 @@
       <c r="Z17" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA17" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
@@ -2924,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="V18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W18" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X18" s="10" t="s">
         <v>28</v>
@@ -2938,8 +3032,14 @@
       <c r="Z18" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA18" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3001,10 +3101,10 @@
         <v>11</v>
       </c>
       <c r="V19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X19" s="10" t="s">
         <v>28</v>
@@ -3015,8 +3115,14 @@
       <c r="Z19" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA19" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3078,10 +3184,10 @@
         <v>11</v>
       </c>
       <c r="V20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W20" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X20" s="10" t="s">
         <v>28</v>
@@ -3092,8 +3198,14 @@
       <c r="Z20" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA20" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3155,10 +3267,10 @@
         <v>11</v>
       </c>
       <c r="V21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X21" s="10" t="s">
         <v>28</v>
@@ -3169,8 +3281,14 @@
       <c r="Z21" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA21" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>49</v>
       </c>
@@ -3232,10 +3350,10 @@
         <v>11</v>
       </c>
       <c r="V22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X22" s="10" t="s">
         <v>28</v>
@@ -3246,8 +3364,14 @@
       <c r="Z22" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="AA22" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="2:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="B23" s="5" t="s">
         <v>50</v>
       </c>
@@ -3309,10 +3433,10 @@
         <v>11</v>
       </c>
       <c r="V23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="W23" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="X23" s="10" t="s">
         <v>28</v>
@@ -3322,6 +3446,9 @@
       </c>
       <c r="Z23" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4205,7 +4332,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4297,7 +4424,7 @@
         <v>5</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>3</v>
@@ -4305,7 +4432,7 @@
     </row>
     <row r="2" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>29</v>
@@ -4383,12 +4510,12 @@
         <v>13</v>
       </c>
       <c r="AA2" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
@@ -4466,12 +4593,12 @@
         <v>13</v>
       </c>
       <c r="AA3" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
@@ -4549,12 +4676,12 @@
         <v>13</v>
       </c>
       <c r="AA4" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>32</v>
@@ -4632,12 +4759,12 @@
         <v>13</v>
       </c>
       <c r="AA5" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>33</v>
@@ -4715,12 +4842,12 @@
         <v>13</v>
       </c>
       <c r="AA6" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>34</v>
@@ -4798,12 +4925,12 @@
         <v>13</v>
       </c>
       <c r="AA7" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
@@ -4881,12 +5008,12 @@
         <v>13</v>
       </c>
       <c r="AA8" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -4964,12 +5091,12 @@
         <v>13</v>
       </c>
       <c r="AA9" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>37</v>
@@ -5047,12 +5174,12 @@
         <v>13</v>
       </c>
       <c r="AA10" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -5130,12 +5257,12 @@
         <v>13</v>
       </c>
       <c r="AA11" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>39</v>
@@ -5213,12 +5340,12 @@
         <v>13</v>
       </c>
       <c r="AA12" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>40</v>
@@ -5296,12 +5423,12 @@
         <v>13</v>
       </c>
       <c r="AA13" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>41</v>
@@ -5379,12 +5506,12 @@
         <v>13</v>
       </c>
       <c r="AA14" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>42</v>
@@ -5462,12 +5589,12 @@
         <v>13</v>
       </c>
       <c r="AA15" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>43</v>
@@ -5545,12 +5672,12 @@
         <v>13</v>
       </c>
       <c r="AA16" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>44</v>
@@ -5628,12 +5755,12 @@
         <v>13</v>
       </c>
       <c r="AA17" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>45</v>
@@ -5711,12 +5838,12 @@
         <v>13</v>
       </c>
       <c r="AA18" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>46</v>
@@ -5794,12 +5921,12 @@
         <v>13</v>
       </c>
       <c r="AA19" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>47</v>
@@ -5877,12 +6004,12 @@
         <v>13</v>
       </c>
       <c r="AA20" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>48</v>
@@ -5960,12 +6087,12 @@
         <v>13</v>
       </c>
       <c r="AA21" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>49</v>
@@ -6043,12 +6170,12 @@
         <v>13</v>
       </c>
       <c r="AA22" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>50</v>
@@ -6126,7 +6253,7 @@
         <v>13</v>
       </c>
       <c r="AA23" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="138">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1079,6 +1079,14 @@
   </si>
   <si>
     <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复材结构强度校核--复合材料强度校核1D</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1181,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1220,6 +1228,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1524,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1539,7 +1548,7 @@
     <col min="28" max="28" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,10 +1631,13 @@
         <v>135</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>113</v>
       </c>
@@ -1696,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="Y2" s="10" t="s">
         <v>55</v>
@@ -1707,1749 +1719,604 @@
       <c r="AA2" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA4" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA10" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="10">
-        <v>3</v>
-      </c>
+      <c r="AB2" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+    </row>
+    <row r="7" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+    </row>
+    <row r="8" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+    </row>
+    <row r="9" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+    </row>
+    <row r="10" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+    </row>
+    <row r="11" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+    </row>
+    <row r="12" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+    </row>
+    <row r="13" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+    </row>
+    <row r="15" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
     </row>
     <row r="17" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="10">
-        <v>3</v>
-      </c>
+      <c r="A17" s="11"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
     </row>
     <row r="18" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA18" s="10">
-        <v>3</v>
-      </c>
+      <c r="A18" s="11"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
     </row>
     <row r="19" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA19" s="10">
-        <v>3</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
     </row>
     <row r="20" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA20" s="10">
-        <v>3</v>
-      </c>
+      <c r="A20" s="11"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
     </row>
     <row r="21" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA21" s="10">
-        <v>3</v>
-      </c>
+      <c r="A21" s="11"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
     </row>
     <row r="22" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA22" s="10">
-        <v>3</v>
-      </c>
+      <c r="A22" s="11"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
     </row>
     <row r="23" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y23" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA23" s="10">
-        <v>3</v>
-      </c>
+      <c r="A23" s="11"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4329,10 +3196,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4341,10 +3208,11 @@
     <col min="3" max="14" width="6.375" style="2" customWidth="1"/>
     <col min="15" max="26" width="6.375" customWidth="1"/>
     <col min="27" max="27" width="7.625" style="12" customWidth="1"/>
-    <col min="28" max="28" width="6.375" customWidth="1"/>
+    <col min="28" max="28" width="7.625" style="14" customWidth="1"/>
+    <col min="29" max="29" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4427,10 +3295,13 @@
         <v>135</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>113</v>
       </c>
@@ -4512,8 +3383,11 @@
       <c r="AA2" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB2" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>114</v>
       </c>
@@ -4595,8 +3469,11 @@
       <c r="AA3" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB3" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>115</v>
       </c>
@@ -4678,8 +3555,11 @@
       <c r="AA4" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB4" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>116</v>
       </c>
@@ -4761,8 +3641,11 @@
       <c r="AA5" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB5" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>117</v>
       </c>
@@ -4844,8 +3727,11 @@
       <c r="AA6" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB6" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>118</v>
       </c>
@@ -4927,8 +3813,11 @@
       <c r="AA7" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB7" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>119</v>
       </c>
@@ -5010,8 +3899,11 @@
       <c r="AA8" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB8" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>120</v>
       </c>
@@ -5093,8 +3985,11 @@
       <c r="AA9" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB9" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>121</v>
       </c>
@@ -5176,8 +4071,11 @@
       <c r="AA10" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB10" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>122</v>
       </c>
@@ -5259,8 +4157,11 @@
       <c r="AA11" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB11" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>123</v>
       </c>
@@ -5342,8 +4243,11 @@
       <c r="AA12" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB12" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>124</v>
       </c>
@@ -5425,8 +4329,11 @@
       <c r="AA13" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB13" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>125</v>
       </c>
@@ -5508,8 +4415,11 @@
       <c r="AA14" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB14" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>126</v>
       </c>
@@ -5591,8 +4501,11 @@
       <c r="AA15" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB15" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>127</v>
       </c>
@@ -5674,8 +4587,11 @@
       <c r="AA16" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB16" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
         <v>128</v>
       </c>
@@ -5757,8 +4673,11 @@
       <c r="AA17" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB17" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>129</v>
       </c>
@@ -5840,8 +4759,11 @@
       <c r="AA18" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB18" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
         <v>130</v>
       </c>
@@ -5923,8 +4845,11 @@
       <c r="AA19" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB19" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>131</v>
       </c>
@@ -6006,8 +4931,11 @@
       <c r="AA20" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB20" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
         <v>132</v>
       </c>
@@ -6089,8 +5017,11 @@
       <c r="AA21" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB21" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>133</v>
       </c>
@@ -6172,8 +5103,11 @@
       <c r="AA22" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB22" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
         <v>134</v>
       </c>
@@ -6254,6 +5188,9 @@
       </c>
       <c r="AA23" s="10">
         <v>3</v>
+      </c>
+      <c r="AB23" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
-    <sheet name="控件属性已经操作方法" sheetId="9" r:id="rId2"/>
-    <sheet name="其他" sheetId="4" r:id="rId3"/>
-    <sheet name="均值" sheetId="5" r:id="rId4"/>
-    <sheet name="机身半径" sheetId="6" r:id="rId5"/>
-    <sheet name="B值减缩系数" sheetId="7" r:id="rId6"/>
-    <sheet name="宽度修正技术" sheetId="8" r:id="rId7"/>
+    <sheet name="测试一" sheetId="10" r:id="rId2"/>
+    <sheet name="控件属性已经操作方法" sheetId="9" r:id="rId3"/>
+    <sheet name="其他" sheetId="4" r:id="rId4"/>
+    <sheet name="均值" sheetId="5" r:id="rId5"/>
+    <sheet name="机身半径" sheetId="6" r:id="rId6"/>
+    <sheet name="B值减缩系数" sheetId="7" r:id="rId7"/>
+    <sheet name="宽度修正技术" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -188,6 +189,169 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+警告弹窗
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块
+整个被测模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
     <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -244,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,13 +430,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-路径弹窗
-选择工况弹窗
-选择材料许用值曲线</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +456,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-警告弹窗</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
@@ -302,13 +464,13 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="133">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -811,38 +973,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CheckBox0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -891,11 +1021,162 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
+    <t>复材结构强度校核-&gt;复合材料强度校核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两边各取蒙皮宽度一半</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合材料强度校核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcqj1d001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcqj1d002</t>
+  </si>
+  <si>
+    <t>fcqj1d003</t>
+  </si>
+  <si>
+    <t>fcqj1d004</t>
+  </si>
+  <si>
+    <t>fcqj1d005</t>
+  </si>
+  <si>
+    <t>fcqj1d006</t>
+  </si>
+  <si>
+    <t>fcqj1d007</t>
+  </si>
+  <si>
+    <t>fcqj1d008</t>
+  </si>
+  <si>
+    <t>fcqj1d009</t>
+  </si>
+  <si>
+    <t>fcqj1d010</t>
+  </si>
+  <si>
+    <t>fcqj1d011</t>
+  </si>
+  <si>
+    <t>fcqj1d012</t>
+  </si>
+  <si>
+    <t>fcqj1d013</t>
+  </si>
+  <si>
+    <t>fcqj1d014</t>
+  </si>
+  <si>
+    <t>fcqj1d015</t>
+  </si>
+  <si>
+    <t>fcqj1d016</t>
+  </si>
+  <si>
+    <t>fcqj1d017</t>
+  </si>
+  <si>
+    <t>fcqj1d018</t>
+  </si>
+  <si>
+    <t>fcqj1d019</t>
+  </si>
+  <si>
+    <t>fcqj1d020</t>
+  </si>
+  <si>
+    <t>fcqj1d021</t>
+  </si>
+  <si>
+    <t>fcqj1d022</t>
+  </si>
+  <si>
+    <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复材结构强度校核--复合材料强度校核1D</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -903,190 +1184,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复材结构强度校核-&gt;复合材料强度校核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两边各取蒙皮宽度一半</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>极</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>均</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>选择校核工况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复合材料强度校核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fcqj1d001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fcqj1d002</t>
-  </si>
-  <si>
-    <t>fcqj1d003</t>
-  </si>
-  <si>
-    <t>fcqj1d004</t>
-  </si>
-  <si>
-    <t>fcqj1d005</t>
-  </si>
-  <si>
-    <t>fcqj1d006</t>
-  </si>
-  <si>
-    <t>fcqj1d007</t>
-  </si>
-  <si>
-    <t>fcqj1d008</t>
-  </si>
-  <si>
-    <t>fcqj1d009</t>
-  </si>
-  <si>
-    <t>fcqj1d010</t>
-  </si>
-  <si>
-    <t>fcqj1d011</t>
-  </si>
-  <si>
-    <t>fcqj1d012</t>
-  </si>
-  <si>
-    <t>fcqj1d013</t>
-  </si>
-  <si>
-    <t>fcqj1d014</t>
-  </si>
-  <si>
-    <t>fcqj1d015</t>
-  </si>
-  <si>
-    <t>fcqj1d016</t>
-  </si>
-  <si>
-    <t>fcqj1d017</t>
-  </si>
-  <si>
-    <t>fcqj1d018</t>
-  </si>
-  <si>
-    <t>fcqj1d019</t>
-  </si>
-  <si>
-    <t>fcqj1d020</t>
-  </si>
-  <si>
-    <t>fcqj1d021</t>
-  </si>
-  <si>
-    <t>fcqj1d022</t>
-  </si>
-  <si>
-    <t>测试结果等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复材结构强度校核--复合材料强度校核1D</t>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择校核工况；确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动鼠标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动鼠标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1189,7 +1331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1229,6 +1371,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1535,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1628,10 +1776,10 @@
         <v>5</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>3</v>
@@ -1639,13 +1787,13 @@
     </row>
     <row r="2" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>8</v>
@@ -1708,7 +1856,7 @@
         <v>12</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="Y2" s="10" t="s">
         <v>55</v>
@@ -1720,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2333,10 +2481,213 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1">
+      <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="43.9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2344,12 +2695,14 @@
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="5" width="6.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
-    <col min="7" max="18" width="6.875" style="2" customWidth="1"/>
-    <col min="19" max="35" width="5.75" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="2"/>
+    <col min="7" max="15" width="6.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.75" style="2" customWidth="1"/>
+    <col min="17" max="19" width="6.875" style="2" customWidth="1"/>
+    <col min="20" max="36" width="5.75" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="13" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
         <v>51</v>
@@ -2390,244 +2743,259 @@
       <c r="N1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:19" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -2682,537 +3050,273 @@
       <c r="R6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>106</v>
+        <v>123</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>85</v>
+        <v>125</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="49.875" style="5" customWidth="1"/>
     <col min="3" max="14" width="6.375" style="2" customWidth="1"/>
-    <col min="15" max="26" width="6.375" customWidth="1"/>
-    <col min="27" max="27" width="7.625" style="12" customWidth="1"/>
-    <col min="28" max="28" width="7.625" style="14" customWidth="1"/>
-    <col min="29" max="29" width="6.375" customWidth="1"/>
+    <col min="15" max="27" width="6.375" customWidth="1"/>
+    <col min="28" max="28" width="7.625" style="12" customWidth="1"/>
+    <col min="29" max="29" width="7.625" style="14" customWidth="1"/>
+    <col min="30" max="30" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3261,55 +3365,58 @@
       <c r="P1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="AB1" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>8</v>
@@ -3350,46 +3457,49 @@
       <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="Y2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AB2" s="10">
         <v>3</v>
       </c>
-      <c r="AB2" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC2" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
@@ -3436,46 +3546,49 @@
       <c r="P3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="Y3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AA3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AB3" s="10">
         <v>3</v>
       </c>
-      <c r="AB3" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC3" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
@@ -3522,46 +3635,49 @@
       <c r="P4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="Y4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AB4" s="10">
         <v>3</v>
       </c>
-      <c r="AB4" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC4" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>32</v>
@@ -3608,46 +3724,49 @@
       <c r="P5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="W5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="X5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="Y5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="Z5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="AA5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AB5" s="10">
         <v>3</v>
       </c>
-      <c r="AB5" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC5" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>33</v>
@@ -3694,46 +3813,49 @@
       <c r="P6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="W6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="X6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="Y6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="Z6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="AA6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AB6" s="10">
         <v>3</v>
       </c>
-      <c r="AB6" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC6" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>34</v>
@@ -3780,46 +3902,49 @@
       <c r="P7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="W7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="X7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="Y7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" s="10" t="s">
+      <c r="Z7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="AA7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AB7" s="10">
         <v>3</v>
       </c>
-      <c r="AB7" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC7" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
@@ -3866,46 +3991,49 @@
       <c r="P8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="W8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="X8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="Y8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="Z8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="AA8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AB8" s="10">
         <v>3</v>
       </c>
-      <c r="AB8" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC8" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -3952,46 +4080,49 @@
       <c r="P9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="7" t="s">
+      <c r="X9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X9" s="10" t="s">
+      <c r="Y9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y9" s="10" t="s">
+      <c r="Z9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z9" s="10" t="s">
+      <c r="AA9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AB9" s="10">
         <v>3</v>
       </c>
-      <c r="AB9" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC9" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>37</v>
@@ -4038,46 +4169,49 @@
       <c r="P10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="W10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="X10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="10" t="s">
+      <c r="Y10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Z10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z10" s="10" t="s">
+      <c r="AA10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AB10" s="10">
         <v>3</v>
       </c>
-      <c r="AB10" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC10" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -4124,46 +4258,49 @@
       <c r="P11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="W11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="X11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="Y11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="10" t="s">
+      <c r="Z11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z11" s="10" t="s">
+      <c r="AA11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AB11" s="10">
         <v>3</v>
       </c>
-      <c r="AB11" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC11" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>39</v>
@@ -4210,46 +4347,49 @@
       <c r="P12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="W12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="7" t="s">
+      <c r="X12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="Y12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y12" s="10" t="s">
+      <c r="Z12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z12" s="10" t="s">
+      <c r="AA12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AB12" s="10">
         <v>3</v>
       </c>
-      <c r="AB12" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC12" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>40</v>
@@ -4296,46 +4436,49 @@
       <c r="P13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="W13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="X13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="Y13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y13" s="10" t="s">
+      <c r="Z13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z13" s="10" t="s">
+      <c r="AA13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AB13" s="10">
         <v>3</v>
       </c>
-      <c r="AB13" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC13" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>41</v>
@@ -4382,46 +4525,49 @@
       <c r="P14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="W14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W14" s="7" t="s">
+      <c r="X14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="Y14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y14" s="10" t="s">
+      <c r="Z14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z14" s="10" t="s">
+      <c r="AA14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AB14" s="10">
         <v>3</v>
       </c>
-      <c r="AB14" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC14" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>42</v>
@@ -4468,46 +4614,49 @@
       <c r="P15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V15" s="7" t="s">
+      <c r="W15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W15" s="7" t="s">
+      <c r="X15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="Y15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y15" s="10" t="s">
+      <c r="Z15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="AA15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AB15" s="10">
         <v>3</v>
       </c>
-      <c r="AB15" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC15" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>43</v>
@@ -4554,46 +4703,49 @@
       <c r="P16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S16" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V16" s="7" t="s">
+      <c r="W16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="7" t="s">
+      <c r="X16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X16" s="10" t="s">
+      <c r="Y16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y16" s="10" t="s">
+      <c r="Z16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z16" s="10" t="s">
+      <c r="AA16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AB16" s="10">
         <v>3</v>
       </c>
-      <c r="AB16" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC16" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>44</v>
@@ -4640,46 +4792,49 @@
       <c r="P17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="W17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W17" s="7" t="s">
+      <c r="X17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X17" s="10" t="s">
+      <c r="Y17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y17" s="10" t="s">
+      <c r="Z17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z17" s="10" t="s">
+      <c r="AA17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AB17" s="10">
         <v>3</v>
       </c>
-      <c r="AB17" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC17" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>45</v>
@@ -4726,46 +4881,49 @@
       <c r="P18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S18" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="W18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W18" s="7" t="s">
+      <c r="X18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X18" s="10" t="s">
+      <c r="Y18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y18" s="10" t="s">
+      <c r="Z18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z18" s="10" t="s">
+      <c r="AA18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AB18" s="10">
         <v>3</v>
       </c>
-      <c r="AB18" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC18" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>46</v>
@@ -4812,46 +4970,49 @@
       <c r="P19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S19" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V19" s="7" t="s">
+      <c r="W19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W19" s="7" t="s">
+      <c r="X19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X19" s="10" t="s">
+      <c r="Y19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y19" s="10" t="s">
+      <c r="Z19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z19" s="10" t="s">
+      <c r="AA19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AB19" s="10">
         <v>3</v>
       </c>
-      <c r="AB19" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC19" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>47</v>
@@ -4898,46 +5059,49 @@
       <c r="P20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S20" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="W20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W20" s="7" t="s">
+      <c r="X20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X20" s="10" t="s">
+      <c r="Y20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y20" s="10" t="s">
+      <c r="Z20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z20" s="10" t="s">
+      <c r="AA20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AB20" s="10">
         <v>3</v>
       </c>
-      <c r="AB20" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC20" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>48</v>
@@ -4984,46 +5148,49 @@
       <c r="P21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V21" s="7" t="s">
+      <c r="W21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W21" s="7" t="s">
+      <c r="X21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X21" s="10" t="s">
+      <c r="Y21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y21" s="10" t="s">
+      <c r="Z21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z21" s="10" t="s">
+      <c r="AA21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AB21" s="10">
         <v>3</v>
       </c>
-      <c r="AB21" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC21" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>49</v>
@@ -5070,46 +5237,49 @@
       <c r="P22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S22" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V22" s="7" t="s">
+      <c r="W22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W22" s="7" t="s">
+      <c r="X22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z22" s="10" t="s">
+      <c r="AA22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA22" s="10">
+      <c r="AB22" s="10">
         <v>3</v>
       </c>
-      <c r="AB22" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC22" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>50</v>
@@ -5156,47 +5326,50 @@
       <c r="P23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S23" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="T23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V23" s="7" t="s">
+      <c r="W23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W23" s="7" t="s">
+      <c r="X23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X23" s="10" t="s">
+      <c r="Y23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Y23" s="10" t="s">
+      <c r="Z23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z23" s="10" t="s">
+      <c r="AA23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AB23" s="10">
         <v>3</v>
       </c>
-      <c r="AB23" s="10" t="s">
-        <v>137</v>
+      <c r="AC23" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5206,7 +5379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5221,7 +5394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5234,21 +5407,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5265,4 +5423,19 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="134">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1229,6 +1229,10 @@
   </si>
   <si>
     <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1284,7 +1288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1300,6 +1304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1376,6 +1386,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1694,9 +1710,10 @@
     <col min="15" max="26" width="6.375" customWidth="1"/>
     <col min="27" max="27" width="7.625" style="12" customWidth="1"/>
     <col min="28" max="28" width="6.375" customWidth="1"/>
+    <col min="29" max="29" width="13.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1781,11 +1798,14 @@
       <c r="AB1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>95</v>
       </c>
@@ -1870,8 +1890,9 @@
       <c r="AB2" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC2" s="17"/>
+    </row>
+    <row r="3" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
@@ -1899,8 +1920,9 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC3" s="18"/>
+    </row>
+    <row r="4" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
@@ -1928,8 +1950,9 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
-    </row>
-    <row r="5" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC4" s="18"/>
+    </row>
+    <row r="5" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
@@ -1957,8 +1980,9 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
-    </row>
-    <row r="6" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC5" s="18"/>
+    </row>
+    <row r="6" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -1986,8 +2010,9 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
-    </row>
-    <row r="7" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC6" s="18"/>
+    </row>
+    <row r="7" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -2015,8 +2040,9 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
-    </row>
-    <row r="8" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC7" s="18"/>
+    </row>
+    <row r="8" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
@@ -2044,8 +2070,9 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
-    </row>
-    <row r="9" spans="1:29" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC8" s="18"/>
+    </row>
+    <row r="9" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -2073,8 +2100,9 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
-    </row>
-    <row r="10" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC9" s="18"/>
+    </row>
+    <row r="10" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="C10" s="3"/>
       <c r="D10" s="8"/>
@@ -2101,8 +2129,9 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
-    </row>
-    <row r="11" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC10" s="18"/>
+    </row>
+    <row r="11" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="C11" s="3"/>
       <c r="D11" s="8"/>
@@ -2129,8 +2158,9 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
-    </row>
-    <row r="12" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC11" s="18"/>
+    </row>
+    <row r="12" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="C12" s="3"/>
       <c r="D12" s="8"/>
@@ -2157,8 +2187,9 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
-    </row>
-    <row r="13" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC12" s="18"/>
+    </row>
+    <row r="13" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="C13" s="3"/>
       <c r="D13" s="8"/>
@@ -2186,7 +2217,7 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="C14" s="3"/>
       <c r="D14" s="8"/>
@@ -2214,7 +2245,7 @@
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
     </row>
-    <row r="15" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="C15" s="3"/>
       <c r="D15" s="8"/>
@@ -2242,7 +2273,7 @@
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
     </row>
-    <row r="16" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="C16" s="3"/>
       <c r="D16" s="8"/>
@@ -2469,7 +2500,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1 AC3:AC1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2481,15 +2512,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="30" max="30" width="13.5" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,11 +2611,14 @@
       <c r="AC1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>95</v>
       </c>
@@ -2669,11 +2706,42 @@
       <c r="AC2" s="10" t="s">
         <v>119</v>
       </c>
+      <c r="AD2" s="17"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD3" s="18"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD4" s="18"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD5" s="18"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD6" s="18"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD7" s="18"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD8" s="18"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD9" s="18"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD10" s="18"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD11" s="18"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AD12" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1 AD3:AD1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3300,10 +3368,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3313,10 +3381,11 @@
     <col min="15" max="27" width="6.375" customWidth="1"/>
     <col min="28" max="28" width="7.625" style="12" customWidth="1"/>
     <col min="29" max="29" width="7.625" style="14" customWidth="1"/>
-    <col min="30" max="30" width="6.375" customWidth="1"/>
+    <col min="30" max="30" width="13.5" style="3" customWidth="1"/>
+    <col min="31" max="31" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3404,11 +3473,14 @@
       <c r="AC1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>95</v>
       </c>
@@ -3496,8 +3568,9 @@
       <c r="AC2" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD2" s="17"/>
+    </row>
+    <row r="3" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>96</v>
       </c>
@@ -3585,8 +3658,9 @@
       <c r="AC3" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD3" s="18"/>
+    </row>
+    <row r="4" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>97</v>
       </c>
@@ -3674,8 +3748,9 @@
       <c r="AC4" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD4" s="18"/>
+    </row>
+    <row r="5" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>98</v>
       </c>
@@ -3763,8 +3838,9 @@
       <c r="AC5" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD5" s="18"/>
+    </row>
+    <row r="6" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>99</v>
       </c>
@@ -3852,8 +3928,9 @@
       <c r="AC6" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD6" s="18"/>
+    </row>
+    <row r="7" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>100</v>
       </c>
@@ -3941,8 +4018,9 @@
       <c r="AC7" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD7" s="18"/>
+    </row>
+    <row r="8" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>101</v>
       </c>
@@ -4030,8 +4108,9 @@
       <c r="AC8" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD8" s="18"/>
+    </row>
+    <row r="9" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>102</v>
       </c>
@@ -4119,8 +4198,9 @@
       <c r="AC9" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD9" s="18"/>
+    </row>
+    <row r="10" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>103</v>
       </c>
@@ -4208,8 +4288,9 @@
       <c r="AC10" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD10" s="18"/>
+    </row>
+    <row r="11" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>104</v>
       </c>
@@ -4297,8 +4378,9 @@
       <c r="AC11" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD11" s="18"/>
+    </row>
+    <row r="12" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>105</v>
       </c>
@@ -4386,8 +4468,9 @@
       <c r="AC12" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD12" s="18"/>
+    </row>
+    <row r="13" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>106</v>
       </c>
@@ -4476,7 +4559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>107</v>
       </c>
@@ -4565,7 +4648,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>108</v>
       </c>
@@ -4654,7 +4737,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>109</v>
       </c>
@@ -5369,7 +5452,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1 AD3:AD1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5398,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
     <sheet name="测试一" sheetId="10" r:id="rId2"/>
     <sheet name="控件属性已经操作方法" sheetId="9" r:id="rId3"/>
-    <sheet name="其他" sheetId="4" r:id="rId4"/>
-    <sheet name="均值" sheetId="5" r:id="rId5"/>
-    <sheet name="机身半径" sheetId="6" r:id="rId6"/>
-    <sheet name="B值减缩系数" sheetId="7" r:id="rId7"/>
-    <sheet name="宽度修正技术" sheetId="8" r:id="rId8"/>
+    <sheet name="被测软件说明" sheetId="11" r:id="rId4"/>
+    <sheet name="其他" sheetId="4" r:id="rId5"/>
+    <sheet name="均值" sheetId="5" r:id="rId6"/>
+    <sheet name="机身半径" sheetId="6" r:id="rId7"/>
+    <sheet name="B值减缩系数" sheetId="7" r:id="rId8"/>
+    <sheet name="宽度修正技术" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -628,7 +629,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="139">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1233,6 +1234,27 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aerobook--Aerochcek</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aerobook--Aerochcek</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始校核计算···
+校核计算已完成！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2514,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2683,7 +2705,7 @@
         <v>10</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>7</v>
@@ -2754,9 +2776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="43.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2771,7 +2791,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="13" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B1" s="7" t="s">
         <v>51</v>
       </c>
@@ -3367,11 +3389,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="94.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3474,7 +3525,7 @@
         <v>118</v>
       </c>
       <c r="AD1" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>3</v>
@@ -5462,7 +5513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5477,11 +5528,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -5490,21 +5541,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5521,4 +5557,19 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化一维复合材料强度校核.xlsx
@@ -1078,10 +1078,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>窗口一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1253,8 +1249,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开始校核计算···
-校核计算已完成！</t>
+    <t>所操作控件窗口</t>
+  </si>
+  <si>
+    <t>开始校核计算··· 校核计算已完成！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1815,13 +1813,13 @@
         <v>5</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AC1" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>3</v>
@@ -1829,7 +1827,7 @@
     </row>
     <row r="2" spans="1:30" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>29</v>
@@ -1898,7 +1896,7 @@
         <v>12</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y2" s="10" t="s">
         <v>55</v>
@@ -1910,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC2" s="17"/>
     </row>
@@ -2537,7 +2535,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2595,7 +2593,7 @@
         <v>20</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>14</v>
@@ -2628,13 +2626,13 @@
         <v>5</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AD1" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>3</v>
@@ -2642,7 +2640,7 @@
     </row>
     <row r="2" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>29</v>
@@ -2687,10 +2685,10 @@
         <v>8</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>8</v>
@@ -2714,7 +2712,7 @@
         <v>12</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z2" s="10" t="s">
         <v>55</v>
@@ -2726,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD2" s="17"/>
     </row>
@@ -2776,7 +2774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="43.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2792,7 +2792,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="13" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>51</v>
@@ -2834,7 +2834,7 @@
         <v>20</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>14</v>
@@ -2893,13 +2893,13 @@
         <v>69</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>70</v>
@@ -2952,7 +2952,7 @@
         <v>83</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>85</v>
@@ -2972,117 +2972,117 @@
         <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="43.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3146,238 +3146,238 @@
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="Q7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3403,12 +3403,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3486,7 +3486,7 @@
         <v>20</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>14</v>
@@ -3519,13 +3519,13 @@
         <v>5</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AD1" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>3</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="2" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>29</v>
@@ -3605,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z2" s="10" t="s">
         <v>55</v>
@@ -3617,13 +3617,13 @@
         <v>3</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD2" s="17"/>
     </row>
     <row r="3" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
@@ -3707,13 +3707,13 @@
         <v>3</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD3" s="18"/>
     </row>
     <row r="4" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
@@ -3797,13 +3797,13 @@
         <v>3</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD4" s="18"/>
     </row>
     <row r="5" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>32</v>
@@ -3887,13 +3887,13 @@
         <v>3</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD5" s="18"/>
     </row>
     <row r="6" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>33</v>
@@ -3977,13 +3977,13 @@
         <v>3</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD6" s="18"/>
     </row>
     <row r="7" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>34</v>
@@ -4067,13 +4067,13 @@
         <v>3</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD7" s="18"/>
     </row>
     <row r="8" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
@@ -4157,13 +4157,13 @@
         <v>3</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD8" s="18"/>
     </row>
     <row r="9" spans="1:31" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -4247,13 +4247,13 @@
         <v>3</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD9" s="18"/>
     </row>
     <row r="10" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>37</v>
@@ -4337,13 +4337,13 @@
         <v>3</v>
       </c>
       <c r="AC10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD10" s="18"/>
     </row>
     <row r="11" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -4427,13 +4427,13 @@
         <v>3</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD11" s="18"/>
     </row>
     <row r="12" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>39</v>
@@ -4517,13 +4517,13 @@
         <v>3</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD12" s="18"/>
     </row>
     <row r="13" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>40</v>
@@ -4607,12 +4607,12 @@
         <v>3</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>41</v>
@@ -4696,12 +4696,12 @@
         <v>3</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>42</v>
@@ -4785,12 +4785,12 @@
         <v>3</v>
       </c>
       <c r="AC15" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>43</v>
@@ -4874,12 +4874,12 @@
         <v>3</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>44</v>
@@ -4963,12 +4963,12 @@
         <v>3</v>
       </c>
       <c r="AC17" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>45</v>
@@ -5052,12 +5052,12 @@
         <v>3</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>46</v>
@@ -5141,12 +5141,12 @@
         <v>3</v>
       </c>
       <c r="AC19" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>47</v>
@@ -5230,12 +5230,12 @@
         <v>3</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>48</v>
@@ -5319,12 +5319,12 @@
         <v>3</v>
       </c>
       <c r="AC21" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>49</v>
@@ -5408,12 +5408,12 @@
         <v>3</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>50</v>
@@ -5497,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="AC23" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
